--- a/Init_Assets/Formats/OTHoldingsFormats.xlsx
+++ b/Init_Assets/Formats/OTHoldingsFormats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t xml:space="preserve">symbol</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t xml:space="preserve">isin_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid cols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type checking of entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send message afterwards</t>
   </si>
   <si>
     <t xml:space="preserve">issuer_name</t>
@@ -81,6 +102,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,8 +162,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,25 +191,25 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -206,38 +232,38 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -250,85 +276,118 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -347,23 +406,23 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -382,50 +441,50 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
